--- a/Data/Data_Raw/Growth/SA/MO24BEAST_SA.xlsx
+++ b/Data/Data_Raw/Growth/SA/MO24BEAST_SA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laureldiaz/Desktop/Repositories/material_legacies_indirect_effects/Data_Raw/Growth/SA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laureldiaz/Desktop/Repositories/material_legacies_indirect_effects/Data/Data_Raw/Growth/SA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC465996-9513-AC48-BB92-E34643F32CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB8B74-C636-AF46-A541-45D4A9693E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="520" windowWidth="22680" windowHeight="19820" xr2:uid="{18E88B05-4AC5-BE46-AA65-BF192120813B}"/>
+    <workbookView xWindow="-23780" yWindow="500" windowWidth="22680" windowHeight="18380" xr2:uid="{18E88B05-4AC5-BE46-AA65-BF192120813B}"/>
   </bookViews>
   <sheets>
     <sheet name="MO24BEAST_wax_dipping" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MO24BEAST_wax_dipping!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MO24BEAST_wax_dipping!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="130">
   <si>
     <t>colony_id</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>weight_of_wax_g</t>
-  </si>
-  <si>
-    <t>SA_cm_2</t>
   </si>
   <si>
     <t>dipper</t>
@@ -1290,19 +1287,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05799691-8AB9-F44E-B58C-97577EEFDD15}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,16 +1326,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <v>82</v>
@@ -1353,23 +1346,19 @@
       <c r="F2">
         <v>2.3540000000000001</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">((F2+0.00008)/0.0059)/100</f>
-        <v>3.9899661016949159</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>58</v>
@@ -1383,23 +1372,19 @@
       <c r="F3">
         <v>2.3159999999999998</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>3.9255593220338985</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>56</v>
@@ -1413,23 +1398,19 @@
       <c r="F4">
         <v>1.8660000000000001</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3.1628474576271191</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>111</v>
@@ -1443,23 +1424,19 @@
       <c r="F5">
         <v>2.0990000000000002</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>3.5577627118644073</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -1473,23 +1450,19 @@
       <c r="F6">
         <v>2.2589999999999999</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>3.8289491525423727</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7">
         <v>94</v>
@@ -1503,26 +1476,22 @@
       <c r="F7">
         <v>3.3620000000000001</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>5.6984406779661025</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
         <v>45468</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1536,23 +1505,19 @@
       <c r="F8">
         <v>1.905</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>3.2289491525423735</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1566,23 +1531,19 @@
       <c r="F9">
         <v>2.637</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>4.4696271186440679</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>41</v>
@@ -1596,23 +1557,19 @@
       <c r="F10">
         <v>3.9119999999999999</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>6.6306440677966103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>73</v>
@@ -1626,23 +1583,19 @@
       <c r="F11">
         <v>2.1139999999999999</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>3.5831864406779657</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -1656,23 +1609,19 @@
       <c r="F12">
         <v>0.88600000000000001</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.5018305084745762</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>37</v>
@@ -1686,23 +1635,19 @@
       <c r="F13">
         <v>2.1829999999999998</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>3.7001355932203386</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>46</v>
@@ -1716,23 +1661,19 @@
       <c r="F14">
         <v>1.4450000000000001</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>2.4492881355932208</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>113</v>
@@ -1746,23 +1687,19 @@
       <c r="F15">
         <v>1.982</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>3.359457627118644</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>48</v>
@@ -1776,23 +1713,19 @@
       <c r="F16">
         <v>1.5249999999999999</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2.5848813559322035</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
       <c r="C17">
         <v>55</v>
@@ -1806,23 +1739,19 @@
       <c r="F17">
         <v>1.1970000000000001</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>2.0289491525423728</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>106</v>
@@ -1836,23 +1765,19 @@
       <c r="F18">
         <v>1.617</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>2.7408135593220337</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="C19">
         <v>34</v>
@@ -1866,23 +1791,19 @@
       <c r="F19">
         <v>1.3680000000000001</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>2.3187796610169498</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>152</v>
@@ -1896,23 +1817,19 @@
       <c r="F20">
         <v>1.151</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>1.9509830508474579</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>86</v>
@@ -1926,23 +1843,19 @@
       <c r="F21">
         <v>1.4470000000000001</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>2.4526779661016951</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>74</v>
@@ -1956,23 +1869,19 @@
       <c r="F22">
         <v>1.8580000000000001</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>3.1492881355932205</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>85</v>
@@ -1986,23 +1895,19 @@
       <c r="F23">
         <v>1.5820000000000001</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>2.6814915254237293</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
       </c>
       <c r="C24">
         <v>31</v>
@@ -2016,23 +1921,19 @@
       <c r="F24">
         <v>1.169</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1.9814915254237291</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>33</v>
@@ -2046,23 +1947,19 @@
       <c r="F25">
         <v>1.2749999999999999</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>2.1611525423728812</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>108</v>
@@ -2076,23 +1973,19 @@
       <c r="F26">
         <v>1.823</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>3.0899661016949151</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>51</v>
@@ -2106,23 +1999,19 @@
       <c r="F27">
         <v>1.7250000000000001</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>2.9238644067796615</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>68</v>
@@ -2136,23 +2025,19 @@
       <c r="F28">
         <v>1.5920000000000001</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>2.6984406779661021</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
       </c>
       <c r="C29">
         <v>91</v>
@@ -2166,23 +2051,19 @@
       <c r="F29">
         <v>1.1559999999999999</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1.9594576271186441</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>104</v>
@@ -2196,23 +2077,19 @@
       <c r="F30">
         <v>2.9430000000000001</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>4.9882711864406781</v>
-      </c>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -2226,23 +2103,19 @@
       <c r="F31">
         <v>1.742</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>2.9526779661016951</v>
-      </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -2256,23 +2129,19 @@
       <c r="F32">
         <v>1.272</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>2.1560677966101696</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>92</v>
@@ -2286,23 +2155,19 @@
       <c r="F33">
         <v>1.599</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>2.7103050847457628</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
         <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -2316,23 +2181,19 @@
       <c r="F34">
         <v>1.35</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">((F34+0.00008)/0.0059)/100</f>
-        <v>2.2882711864406784</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>150</v>
@@ -2346,23 +2207,19 @@
       <c r="F35">
         <v>3.1160000000000001</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>5.2814915254237293</v>
-      </c>
-      <c r="H35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
       </c>
       <c r="C36">
         <v>48</v>
@@ -2376,23 +2233,19 @@
       <c r="F36">
         <v>2.762</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>4.6814915254237288</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>27</v>
@@ -2406,23 +2259,19 @@
       <c r="F37">
         <v>2.6509999999999998</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>4.4933559322033894</v>
-      </c>
-      <c r="H37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -2436,23 +2285,19 @@
       <c r="F38">
         <v>2.6920000000000002</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>4.562847457627119</v>
-      </c>
-      <c r="H38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>102</v>
@@ -2466,23 +2311,19 @@
       <c r="F39">
         <v>2.9359999999999999</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>4.9764067796610165</v>
-      </c>
-      <c r="H39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -2496,23 +2337,19 @@
       <c r="F40">
         <v>2.4849999999999999</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>4.2119999999999997</v>
-      </c>
-      <c r="H40" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
       </c>
       <c r="C41">
         <v>105</v>
@@ -2526,23 +2363,19 @@
       <c r="F41">
         <v>1.865</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>3.1611525423728812</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>117</v>
@@ -2556,23 +2389,19 @@
       <c r="F42">
         <v>1.359</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>2.3035254237288139</v>
-      </c>
-      <c r="H42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -2586,23 +2415,19 @@
       <c r="F43">
         <v>1.466</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>2.4848813559322038</v>
-      </c>
-      <c r="H43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2616,23 +2441,19 @@
       <c r="F44">
         <v>1.84</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>3.1187796610169496</v>
-      </c>
-      <c r="H44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
         <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
       </c>
       <c r="C45">
         <v>99</v>
@@ -2646,23 +2467,19 @@
       <c r="F45">
         <v>2.0350000000000001</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>3.4492881355932208</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>64</v>
@@ -2676,23 +2493,19 @@
       <c r="F46">
         <v>2.9049999999999998</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>4.9238644067796606</v>
-      </c>
-      <c r="H46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>76</v>
@@ -2706,23 +2519,19 @@
       <c r="F47">
         <v>1.885</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>3.1950508474576278</v>
-      </c>
-      <c r="H47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>59</v>
@@ -2736,23 +2545,19 @@
       <c r="F48">
         <v>2.61</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>4.4238644067796606</v>
-      </c>
-      <c r="H48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
         <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
       </c>
       <c r="C49">
         <v>23</v>
@@ -2766,23 +2571,19 @@
       <c r="F49">
         <v>2.0680000000000001</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>3.505220338983051</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>78</v>
@@ -2796,23 +2597,19 @@
       <c r="F50">
         <v>1.63</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>2.7628474576271187</v>
-      </c>
-      <c r="H50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>95</v>
@@ -2826,23 +2623,19 @@
       <c r="F51">
         <v>2.4220000000000002</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>4.1052203389830515</v>
-      </c>
-      <c r="H51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>53</v>
@@ -2856,23 +2649,19 @@
       <c r="F52">
         <v>2.6509999999999998</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>4.4933559322033894</v>
-      </c>
-      <c r="H52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>19</v>
@@ -2886,23 +2675,19 @@
       <c r="F53">
         <v>1.222</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>2.0713220338983054</v>
-      </c>
-      <c r="H53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
         <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
       </c>
       <c r="C54">
         <v>71</v>
@@ -2916,23 +2701,19 @@
       <c r="F54">
         <v>1.034</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>1.7526779661016951</v>
-      </c>
-      <c r="H54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>25</v>
@@ -2946,23 +2727,19 @@
       <c r="F55">
         <v>1.23</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>2.0848813559322035</v>
-      </c>
-      <c r="H55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>11</v>
@@ -2976,23 +2753,19 @@
       <c r="F56">
         <v>2.3769999999999998</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>4.0289491525423724</v>
-      </c>
-      <c r="H56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I56" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
         <v>72</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
       </c>
       <c r="C57">
         <v>22</v>
@@ -3006,23 +2779,19 @@
       <c r="F57">
         <v>1.365</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>2.3136949152542372</v>
-      </c>
-      <c r="H57" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>118</v>
@@ -3036,23 +2805,19 @@
       <c r="F58">
         <v>1.865</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>3.1611525423728812</v>
-      </c>
-      <c r="H58" t="s">
-        <v>40</v>
-      </c>
-      <c r="I58" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>96</v>
@@ -3066,23 +2831,19 @@
       <c r="F59">
         <v>2.1419999999999999</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>3.6306440677966099</v>
-      </c>
-      <c r="H59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60">
         <v>43</v>
@@ -3096,23 +2857,19 @@
       <c r="F60">
         <v>1.6830000000000001</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>2.852677966101695</v>
-      </c>
-      <c r="H60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>21</v>
@@ -3126,23 +2883,19 @@
       <c r="F61">
         <v>1.7789999999999999</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>3.0153898305084748</v>
-      </c>
-      <c r="H61" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
         <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>70</v>
       </c>
       <c r="C62">
         <v>163</v>
@@ -3156,23 +2909,19 @@
       <c r="F62">
         <v>1.425</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>2.4153898305084751</v>
-      </c>
-      <c r="H62" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
         <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
       </c>
       <c r="C63">
         <v>28</v>
@@ -3186,23 +2935,19 @@
       <c r="F63">
         <v>1.8129999999999999</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>3.0730169491525423</v>
-      </c>
-      <c r="H63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>137</v>
@@ -3216,23 +2961,19 @@
       <c r="F64">
         <v>1.3</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>2.2035254237288138</v>
-      </c>
-      <c r="H64" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>127</v>
@@ -3246,23 +2987,19 @@
       <c r="F65">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>1.671322033898305</v>
-      </c>
-      <c r="H65" t="s">
-        <v>40</v>
-      </c>
-      <c r="I65" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66">
         <v>121</v>
@@ -3276,23 +3013,19 @@
       <c r="F66">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G97" si="2">((F66+0.00008)/0.0059)/100</f>
-        <v>1.4967457627118645</v>
-      </c>
-      <c r="H66" t="s">
-        <v>40</v>
-      </c>
-      <c r="I66" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
         <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
       </c>
       <c r="C67">
         <v>35</v>
@@ -3306,23 +3039,19 @@
       <c r="F67">
         <v>1.387</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>2.3509830508474581</v>
-      </c>
-      <c r="H67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>66</v>
@@ -3336,23 +3065,19 @@
       <c r="F68">
         <v>2.1440000000000001</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>3.6340338983050851</v>
-      </c>
-      <c r="H68" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69">
         <v>128</v>
@@ -3366,23 +3091,19 @@
       <c r="F69">
         <v>2.948</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>4.996745762711865</v>
-      </c>
-      <c r="H69" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70">
         <v>138</v>
@@ -3396,23 +3117,19 @@
       <c r="F70">
         <v>1.895</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>3.2120000000000006</v>
-      </c>
-      <c r="H70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
         <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
       </c>
       <c r="C71">
         <v>83</v>
@@ -3426,23 +3143,19 @@
       <c r="F71">
         <v>1.2050000000000001</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>2.0425084745762714</v>
-      </c>
-      <c r="H71" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72">
         <v>114</v>
@@ -3456,23 +3169,19 @@
       <c r="F72">
         <v>2.4470000000000001</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>4.1475932203389831</v>
-      </c>
-      <c r="H72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73">
         <v>123</v>
@@ -3486,23 +3195,19 @@
       <c r="F73">
         <v>1.52</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>2.5764067796610171</v>
-      </c>
-      <c r="H73" t="s">
-        <v>40</v>
-      </c>
-      <c r="I73" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <v>80</v>
@@ -3516,23 +3221,19 @@
       <c r="F74">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>1.2238644067796609</v>
-      </c>
-      <c r="H74" t="s">
-        <v>40</v>
-      </c>
-      <c r="I74" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75">
         <v>136</v>
@@ -3546,23 +3247,19 @@
       <c r="F75">
         <v>1.05</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>1.7797966101694918</v>
-      </c>
-      <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="H75" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
         <v>47</v>
-      </c>
-      <c r="B76" t="s">
-        <v>48</v>
       </c>
       <c r="C76">
         <v>141</v>
@@ -3576,23 +3273,19 @@
       <c r="F76">
         <v>2.3130000000000002</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>3.9204745762711872</v>
-      </c>
-      <c r="H76" t="s">
-        <v>40</v>
-      </c>
-      <c r="I76" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -3606,23 +3299,19 @@
       <c r="F77">
         <v>1.609</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>2.7272542372881357</v>
-      </c>
-      <c r="H77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <v>139</v>
@@ -3636,23 +3325,19 @@
       <c r="F78">
         <v>1.885</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>3.1950508474576278</v>
-      </c>
-      <c r="H78" t="s">
-        <v>40</v>
-      </c>
-      <c r="I78" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79">
         <v>125</v>
@@ -3666,23 +3351,19 @@
       <c r="F79">
         <v>1.877</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>3.1814915254237293</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>41</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
       </c>
       <c r="C80">
         <v>67</v>
@@ -3696,23 +3377,19 @@
       <c r="F80">
         <v>1.919</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>3.2526779661016949</v>
-      </c>
-      <c r="H80" t="s">
-        <v>40</v>
-      </c>
-      <c r="I80" s="1">
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="1">
         <v>45474</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81">
         <v>134</v>
@@ -3726,23 +3403,19 @@
       <c r="F81">
         <v>1.45</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="2"/>
-        <v>2.4577627118644068</v>
-      </c>
-      <c r="H81" t="s">
-        <v>40</v>
-      </c>
-      <c r="I81" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82">
         <v>13</v>
@@ -3756,23 +3429,19 @@
       <c r="F82">
         <v>1.9</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="2"/>
-        <v>3.2204745762711866</v>
-      </c>
-      <c r="H82" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83">
         <v>101</v>
@@ -3786,23 +3455,19 @@
       <c r="F83">
         <v>2.1349999999999998</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="2"/>
-        <v>3.6187796610169487</v>
-      </c>
-      <c r="H83" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>100</v>
@@ -3816,23 +3481,19 @@
       <c r="F84">
         <v>1.984</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>3.3628474576271192</v>
-      </c>
-      <c r="H84" t="s">
-        <v>40</v>
-      </c>
-      <c r="I84" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
         <v>26</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
       </c>
       <c r="C85">
         <v>144</v>
@@ -3846,23 +3507,19 @@
       <c r="F85">
         <v>1.698</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="2"/>
-        <v>2.8781016949152542</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="1">
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1">
         <v>45468</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>140</v>
@@ -3876,23 +3533,19 @@
       <c r="F86">
         <v>1.607</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="2"/>
-        <v>2.7238644067796609</v>
-      </c>
-      <c r="H86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>97</v>
@@ -3906,23 +3559,19 @@
       <c r="F87">
         <v>2.097</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="2"/>
-        <v>3.5543728813559325</v>
-      </c>
-      <c r="H87" t="s">
-        <v>40</v>
-      </c>
-      <c r="I87" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -3936,23 +3585,19 @@
       <c r="F88">
         <v>1.8029999999999999</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>3.0560677966101695</v>
-      </c>
-      <c r="H88" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -3966,23 +3611,19 @@
       <c r="F89">
         <v>1.6890000000000001</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="2"/>
-        <v>2.8628474576271192</v>
-      </c>
-      <c r="H89" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
         <v>49</v>
-      </c>
-      <c r="B90" t="s">
-        <v>50</v>
       </c>
       <c r="C90">
         <v>157</v>
@@ -3996,23 +3637,19 @@
       <c r="F90">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="2"/>
-        <v>1.588271186440678</v>
-      </c>
-      <c r="H90" t="s">
-        <v>40</v>
-      </c>
-      <c r="I90" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -4026,23 +3663,19 @@
       <c r="F91">
         <v>2.5329999999999999</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="2"/>
-        <v>4.2933559322033901</v>
-      </c>
-      <c r="H91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I91" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92">
         <v>151</v>
@@ -4056,23 +3689,19 @@
       <c r="F92">
         <v>1.3080000000000001</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="2"/>
-        <v>2.2170847457627123</v>
-      </c>
-      <c r="H92" t="s">
-        <v>40</v>
-      </c>
-      <c r="I92" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>39</v>
+      </c>
+      <c r="H92" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93">
         <v>155</v>
@@ -4086,23 +3715,19 @@
       <c r="F93">
         <v>1.2509999999999999</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="2"/>
-        <v>2.1204745762711865</v>
-      </c>
-      <c r="H93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I93" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94">
         <v>36</v>
@@ -4116,23 +3741,19 @@
       <c r="F94">
         <v>1.655</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="2"/>
-        <v>2.8052203389830508</v>
-      </c>
-      <c r="H94" t="s">
-        <v>40</v>
-      </c>
-      <c r="I94" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
         <v>38</v>
-      </c>
-      <c r="B95" t="s">
-        <v>39</v>
       </c>
       <c r="C95">
         <v>205</v>
@@ -4146,23 +3767,19 @@
       <c r="F95">
         <v>1.39</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="2"/>
-        <v>2.3560677966101697</v>
-      </c>
-      <c r="H95" t="s">
-        <v>40</v>
-      </c>
-      <c r="I95" s="1">
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" s="1">
         <v>45474</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96">
         <v>57</v>
@@ -4176,18 +3793,14 @@
       <c r="F96">
         <v>1.1779999999999999</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="2"/>
-        <v>1.9967457627118645</v>
-      </c>
-      <c r="H96" t="s">
-        <v>40</v>
-      </c>
-      <c r="I96" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>145</v>
       </c>
@@ -4203,18 +3816,14 @@
       <c r="F97">
         <v>1.7849999999999999</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="2"/>
-        <v>3.0255593220338981</v>
-      </c>
-      <c r="H97" t="s">
-        <v>40</v>
-      </c>
-      <c r="I97" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>210</v>
       </c>
@@ -4230,18 +3839,14 @@
       <c r="F98">
         <v>2.181</v>
       </c>
-      <c r="G98">
-        <f t="shared" ref="G98:G129" si="3">((F98+0.00008)/0.0059)/100</f>
-        <v>3.6967457627118647</v>
-      </c>
-      <c r="H98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I98" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H98" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>203</v>
       </c>
@@ -4257,18 +3862,14 @@
       <c r="F99">
         <v>1.302</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="3"/>
-        <v>2.2069152542372885</v>
-      </c>
-      <c r="H99" t="s">
-        <v>40</v>
-      </c>
-      <c r="I99" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>206</v>
       </c>
@@ -4284,18 +3885,14 @@
       <c r="F100">
         <v>1.091</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
-        <v>1.8492881355932205</v>
-      </c>
-      <c r="H100" t="s">
-        <v>40</v>
-      </c>
-      <c r="I100" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>148</v>
       </c>
@@ -4311,18 +3908,14 @@
       <c r="F101">
         <v>1.224</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="3"/>
-        <v>2.0747118644067797</v>
-      </c>
-      <c r="H101" t="s">
-        <v>40</v>
-      </c>
-      <c r="I101" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>63</v>
       </c>
@@ -4338,18 +3931,14 @@
       <c r="F102">
         <v>1.5840000000000001</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="3"/>
-        <v>2.6848813559322036</v>
-      </c>
-      <c r="H102" t="s">
-        <v>40</v>
-      </c>
-      <c r="I102" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H102" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>208</v>
       </c>
@@ -4365,18 +3954,14 @@
       <c r="F103">
         <v>1.625</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="3"/>
-        <v>2.7543728813559323</v>
-      </c>
-      <c r="H103" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>39</v>
+      </c>
+      <c r="H103" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4392,18 +3977,14 @@
       <c r="F104">
         <v>1.6240000000000001</v>
       </c>
-      <c r="G104">
-        <f t="shared" si="3"/>
-        <v>2.7526779661016949</v>
-      </c>
-      <c r="H104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I104" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>153</v>
       </c>
@@ -4419,18 +4000,14 @@
       <c r="F105">
         <v>2.1720000000000002</v>
       </c>
-      <c r="G105">
-        <f t="shared" si="3"/>
-        <v>3.6814915254237293</v>
-      </c>
-      <c r="H105" t="s">
-        <v>40</v>
-      </c>
-      <c r="I105" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4446,18 +4023,14 @@
       <c r="F106">
         <v>2.7959999999999998</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="3"/>
-        <v>4.7391186440677968</v>
-      </c>
-      <c r="H106" t="s">
-        <v>40</v>
-      </c>
-      <c r="I106" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="H106" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>159</v>
       </c>
@@ -4473,18 +4046,14 @@
       <c r="F107">
         <v>2.0409999999999999</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="3"/>
-        <v>3.4594576271186441</v>
-      </c>
-      <c r="H107" t="s">
-        <v>40</v>
-      </c>
-      <c r="I107" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -4500,18 +4069,14 @@
       <c r="F108">
         <v>2.2719999999999998</v>
       </c>
-      <c r="G108">
-        <f t="shared" si="3"/>
-        <v>3.8509830508474572</v>
-      </c>
-      <c r="H108" t="s">
-        <v>40</v>
-      </c>
-      <c r="I108" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>156</v>
       </c>
@@ -4527,18 +4092,14 @@
       <c r="F109">
         <v>2.1320000000000001</v>
       </c>
-      <c r="G109">
-        <f t="shared" si="3"/>
-        <v>3.6136949152542375</v>
-      </c>
-      <c r="H109" t="s">
-        <v>40</v>
-      </c>
-      <c r="I109" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>146</v>
       </c>
@@ -4554,18 +4115,14 @@
       <c r="F110">
         <v>2.2120000000000002</v>
       </c>
-      <c r="G110">
-        <f t="shared" si="3"/>
-        <v>3.7492881355932206</v>
-      </c>
-      <c r="H110" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>39</v>
+      </c>
+      <c r="H110" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>202</v>
       </c>
@@ -4581,18 +4138,14 @@
       <c r="F111">
         <v>2.2469999999999999</v>
       </c>
-      <c r="G111">
-        <f t="shared" si="3"/>
-        <v>3.8086101694915255</v>
-      </c>
-      <c r="H111" t="s">
-        <v>40</v>
-      </c>
-      <c r="I111" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>149</v>
       </c>
@@ -4608,18 +4161,14 @@
       <c r="F112">
         <v>1.3580000000000001</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="3"/>
-        <v>2.3018305084745765</v>
-      </c>
-      <c r="H112" t="s">
-        <v>40</v>
-      </c>
-      <c r="I112" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>39</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>162</v>
       </c>
@@ -4635,18 +4184,14 @@
       <c r="F113">
         <v>1.19</v>
       </c>
-      <c r="G113">
-        <f t="shared" si="3"/>
-        <v>2.0170847457627117</v>
-      </c>
-      <c r="H113" t="s">
-        <v>40</v>
-      </c>
-      <c r="I113" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>39</v>
+      </c>
+      <c r="H113" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>110</v>
       </c>
@@ -4662,18 +4207,14 @@
       <c r="F114">
         <v>3.266</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="3"/>
-        <v>5.5357288135593228</v>
-      </c>
-      <c r="H114" t="s">
-        <v>40</v>
-      </c>
-      <c r="I114" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>159</v>
       </c>
@@ -4689,18 +4230,14 @@
       <c r="F115">
         <v>1.9339999999999999</v>
       </c>
-      <c r="G115">
-        <f t="shared" si="3"/>
-        <v>3.2781016949152542</v>
-      </c>
-      <c r="H115" t="s">
-        <v>40</v>
-      </c>
-      <c r="I115" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>204</v>
       </c>
@@ -4716,18 +4253,14 @@
       <c r="F116">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G116">
-        <f t="shared" si="3"/>
-        <v>1.6628474576271186</v>
-      </c>
-      <c r="H116" t="s">
-        <v>40</v>
-      </c>
-      <c r="I116" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>39</v>
+      </c>
+      <c r="H116" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>161</v>
       </c>
@@ -4743,18 +4276,14 @@
       <c r="F117">
         <v>2.9849999999999999</v>
       </c>
-      <c r="G117">
-        <f t="shared" si="3"/>
-        <v>5.0594576271186442</v>
-      </c>
-      <c r="H117" t="s">
-        <v>40</v>
-      </c>
-      <c r="I117" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>147</v>
       </c>
@@ -4770,18 +4299,14 @@
       <c r="F118">
         <v>2.6850000000000001</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="3"/>
-        <v>4.5509830508474582</v>
-      </c>
-      <c r="H118" t="s">
-        <v>40</v>
-      </c>
-      <c r="I118" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>135</v>
       </c>
@@ -4797,18 +4322,14 @@
       <c r="F119">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G119">
-        <f t="shared" si="3"/>
-        <v>1.2967457627118646</v>
-      </c>
-      <c r="H119" t="s">
-        <v>40</v>
-      </c>
-      <c r="I119" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+      <c r="H119" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>207</v>
       </c>
@@ -4824,18 +4345,14 @@
       <c r="F120">
         <v>2.21</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="3"/>
-        <v>3.7458983050847463</v>
-      </c>
-      <c r="H120" t="s">
-        <v>40</v>
-      </c>
-      <c r="I120" s="1">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>39</v>
+      </c>
+      <c r="H120" s="1">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>143</v>
       </c>
@@ -4852,20 +4369,16 @@
         <f>E121-D121</f>
         <v>2.1690000000000005</v>
       </c>
-      <c r="G121">
-        <f t="shared" si="3"/>
-        <v>3.676406779661018</v>
-      </c>
-      <c r="H121" t="s">
-        <v>40</v>
-      </c>
-      <c r="I121" s="1">
+      <c r="G121" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" s="1">
         <v>45477</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{05799691-8AB9-F44E-B58C-97577EEFDD15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J120">
+  <autoFilter ref="A1:I1" xr:uid="{05799691-8AB9-F44E-B58C-97577EEFDD15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I120">
       <sortCondition ref="B1:B120"/>
     </sortState>
   </autoFilter>

--- a/Data/Data_Raw/Growth/SA/MO24BEAST_SA.xlsx
+++ b/Data/Data_Raw/Growth/SA/MO24BEAST_SA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laureldiaz/Desktop/Repositories/material_legacies_indirect_effects/Data/Data_Raw/Growth/SA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB8B74-C636-AF46-A541-45D4A9693E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDFE675-1871-C346-866D-28D8C9DB8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="500" windowWidth="22680" windowHeight="18380" xr2:uid="{18E88B05-4AC5-BE46-AA65-BF192120813B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{18E88B05-4AC5-BE46-AA65-BF192120813B}"/>
   </bookViews>
   <sheets>
     <sheet name="MO24BEAST_wax_dipping" sheetId="1" r:id="rId1"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05799691-8AB9-F44E-B58C-97577EEFDD15}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
